--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H2">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I2">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J2">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7714696666666666</v>
+        <v>0.045969</v>
       </c>
       <c r="N2">
-        <v>2.314409</v>
+        <v>0.137907</v>
       </c>
       <c r="O2">
-        <v>0.7560702792424823</v>
+        <v>0.02005561186871295</v>
       </c>
       <c r="P2">
-        <v>0.7560702792424822</v>
+        <v>0.02005561186871294</v>
       </c>
       <c r="Q2">
-        <v>41.22411732933867</v>
+        <v>2.387459422271</v>
       </c>
       <c r="R2">
-        <v>371.017055964048</v>
+        <v>21.487134800439</v>
       </c>
       <c r="S2">
-        <v>0.6090539053655744</v>
+        <v>0.01545130903918912</v>
       </c>
       <c r="T2">
-        <v>0.6090539053655742</v>
+        <v>0.01545130903918911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H3">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I3">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J3">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,33 +617,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.248898</v>
+        <v>0.7714696666666666</v>
       </c>
       <c r="N3">
-        <v>0.746694</v>
+        <v>2.314409</v>
       </c>
       <c r="O3">
-        <v>0.2439297207575178</v>
+        <v>0.3365810916737805</v>
       </c>
       <c r="P3">
-        <v>0.2439297207575178</v>
+        <v>0.3365810916737805</v>
       </c>
       <c r="Q3">
-        <v>13.300069721952</v>
+        <v>40.06727413429922</v>
       </c>
       <c r="R3">
-        <v>119.700627497568</v>
+        <v>360.605467208693</v>
       </c>
       <c r="S3">
-        <v>0.1964980678925126</v>
+        <v>0.2593098878380404</v>
       </c>
       <c r="T3">
-        <v>0.1964980678925126</v>
+        <v>0.2593098878380403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03171066666666667</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H4">
-        <v>0.09513200000000001</v>
+        <v>155.808877</v>
       </c>
       <c r="I4">
-        <v>0.0004780424103998616</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J4">
-        <v>0.0004780424103998616</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7714696666666666</v>
+        <v>1.467508333333333</v>
       </c>
       <c r="N4">
-        <v>2.314409</v>
+        <v>4.402525</v>
       </c>
       <c r="O4">
-        <v>0.7560702792424823</v>
+        <v>0.6402527256941667</v>
       </c>
       <c r="P4">
-        <v>0.7560702792424822</v>
+        <v>0.6402527256941667</v>
       </c>
       <c r="Q4">
-        <v>0.02446381744311111</v>
+        <v>76.21694180160277</v>
       </c>
       <c r="R4">
-        <v>0.220174356988</v>
+        <v>685.9524762144249</v>
       </c>
       <c r="S4">
-        <v>0.0003614336587207727</v>
+        <v>0.4932655654010025</v>
       </c>
       <c r="T4">
-        <v>0.0003614336587207726</v>
+        <v>0.4932655654010024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>51.93629233333333</v>
+      </c>
+      <c r="H5">
+        <v>155.808877</v>
+      </c>
+      <c r="I5">
+        <v>0.7704232182162135</v>
+      </c>
+      <c r="J5">
+        <v>0.7704232182162134</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.03171066666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.09513200000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.0004780424103998616</v>
-      </c>
-      <c r="J5">
-        <v>0.0004780424103998616</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.248898</v>
+        <v>0.007129666666666666</v>
       </c>
       <c r="N5">
-        <v>0.746694</v>
+        <v>0.021389</v>
       </c>
       <c r="O5">
-        <v>0.2439297207575178</v>
+        <v>0.003110570763339795</v>
       </c>
       <c r="P5">
-        <v>0.2439297207575178</v>
+        <v>0.003110570763339795</v>
       </c>
       <c r="Q5">
-        <v>0.007892721512</v>
+        <v>0.3702884522392222</v>
       </c>
       <c r="R5">
-        <v>0.071034493608</v>
+        <v>3.332596070153</v>
       </c>
       <c r="S5">
-        <v>0.000116608751679089</v>
+        <v>0.002396455937981509</v>
       </c>
       <c r="T5">
-        <v>0.000116608751679089</v>
+        <v>0.002396455937981508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.131391333333333</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H6">
-        <v>6.394174</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I6">
-        <v>0.03213100062519577</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J6">
-        <v>0.03213100062519577</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7714696666666666</v>
+        <v>0.045969</v>
       </c>
       <c r="N6">
-        <v>2.314409</v>
+        <v>0.137907</v>
       </c>
       <c r="O6">
-        <v>0.7560702792424823</v>
+        <v>0.02005561186871295</v>
       </c>
       <c r="P6">
-        <v>0.7560702792424822</v>
+        <v>0.02005561186871294</v>
       </c>
       <c r="Q6">
-        <v>1.644303761462889</v>
+        <v>0.001457707636</v>
       </c>
       <c r="R6">
-        <v>14.798733853166</v>
+        <v>0.013119368724</v>
       </c>
       <c r="S6">
-        <v>0.02429329461503214</v>
+        <v>9.434083345046757E-06</v>
       </c>
       <c r="T6">
-        <v>0.02429329461503213</v>
+        <v>9.434083345046755E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,25 +838,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.131391333333333</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H7">
-        <v>6.394174</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I7">
-        <v>0.03213100062519577</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J7">
-        <v>0.03213100062519577</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,33 +865,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.248898</v>
+        <v>0.7714696666666666</v>
       </c>
       <c r="N7">
-        <v>0.746694</v>
+        <v>2.314409</v>
       </c>
       <c r="O7">
-        <v>0.2439297207575178</v>
+        <v>0.3365810916737805</v>
       </c>
       <c r="P7">
-        <v>0.2439297207575178</v>
+        <v>0.3365810916737805</v>
       </c>
       <c r="Q7">
-        <v>0.530499040084</v>
+        <v>0.02446381744311111</v>
       </c>
       <c r="R7">
-        <v>4.774491360756</v>
+        <v>0.220174356988</v>
       </c>
       <c r="S7">
-        <v>0.007837706010163634</v>
+        <v>0.0001583264620398262</v>
       </c>
       <c r="T7">
-        <v>0.007837706010163634</v>
+        <v>0.0001583264620398262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>10.73549533333333</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H8">
-        <v>32.206486</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I8">
-        <v>0.1618389837063175</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J8">
-        <v>0.1618389837063175</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7714696666666666</v>
+        <v>1.467508333333333</v>
       </c>
       <c r="N8">
-        <v>2.314409</v>
+        <v>4.402525</v>
       </c>
       <c r="O8">
-        <v>0.7560702792424823</v>
+        <v>0.6402527256941667</v>
       </c>
       <c r="P8">
-        <v>0.7560702792424822</v>
+        <v>0.6402527256941667</v>
       </c>
       <c r="Q8">
-        <v>8.282109006308222</v>
+        <v>0.04653566758888888</v>
       </c>
       <c r="R8">
-        <v>74.53898105677399</v>
+        <v>0.4188210083</v>
       </c>
       <c r="S8">
-        <v>0.122361645603155</v>
+        <v>0.0003011724406930175</v>
       </c>
       <c r="T8">
-        <v>0.122361645603155</v>
+        <v>0.0003011724406930175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03171066666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.09513199999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.0004703961867034368</v>
+      </c>
+      <c r="J9">
+        <v>0.0004703961867034368</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.007129666666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.021389</v>
+      </c>
+      <c r="O9">
+        <v>0.003110570763339795</v>
+      </c>
+      <c r="P9">
+        <v>0.003110570763339795</v>
+      </c>
+      <c r="Q9">
+        <v>0.0002260864831111111</v>
+      </c>
+      <c r="R9">
+        <v>0.002034778348</v>
+      </c>
+      <c r="S9">
+        <v>1.463200625546238E-06</v>
+      </c>
+      <c r="T9">
+        <v>1.463200625546238E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>10.73549533333333</v>
-      </c>
-      <c r="H9">
-        <v>32.206486</v>
-      </c>
-      <c r="I9">
-        <v>0.1618389837063175</v>
-      </c>
-      <c r="J9">
-        <v>0.1618389837063175</v>
-      </c>
-      <c r="K9">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.162051666666667</v>
+      </c>
+      <c r="H10">
+        <v>6.486155</v>
+      </c>
+      <c r="I10">
+        <v>0.03207188515291837</v>
+      </c>
+      <c r="J10">
+        <v>0.03207188515291837</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.045969</v>
+      </c>
+      <c r="N10">
+        <v>0.137907</v>
+      </c>
+      <c r="O10">
+        <v>0.02005561186871295</v>
+      </c>
+      <c r="P10">
+        <v>0.02005561186871294</v>
+      </c>
+      <c r="Q10">
+        <v>0.099387353065</v>
+      </c>
+      <c r="R10">
+        <v>0.894486177585</v>
+      </c>
+      <c r="S10">
+        <v>0.0006432212805248681</v>
+      </c>
+      <c r="T10">
+        <v>0.000643221280524868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.162051666666667</v>
+      </c>
+      <c r="H11">
+        <v>6.486155</v>
+      </c>
+      <c r="I11">
+        <v>0.03207188515291837</v>
+      </c>
+      <c r="J11">
+        <v>0.03207188515291837</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M9">
-        <v>0.248898</v>
-      </c>
-      <c r="N9">
-        <v>0.746694</v>
-      </c>
-      <c r="O9">
-        <v>0.2439297207575178</v>
-      </c>
-      <c r="P9">
-        <v>0.2439297207575178</v>
-      </c>
-      <c r="Q9">
-        <v>2.672043317476</v>
-      </c>
-      <c r="R9">
-        <v>24.048389857284</v>
-      </c>
-      <c r="S9">
-        <v>0.03947733810316249</v>
-      </c>
-      <c r="T9">
-        <v>0.0394773381031625</v>
+      <c r="M11">
+        <v>0.7714696666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.314409</v>
+      </c>
+      <c r="O11">
+        <v>0.3365810916737805</v>
+      </c>
+      <c r="P11">
+        <v>0.3365810916737805</v>
+      </c>
+      <c r="Q11">
+        <v>1.667957278599444</v>
+      </c>
+      <c r="R11">
+        <v>15.011615507395</v>
+      </c>
+      <c r="S11">
+        <v>0.01079479011680538</v>
+      </c>
+      <c r="T11">
+        <v>0.01079479011680538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.162051666666667</v>
+      </c>
+      <c r="H12">
+        <v>6.486155</v>
+      </c>
+      <c r="I12">
+        <v>0.03207188515291837</v>
+      </c>
+      <c r="J12">
+        <v>0.03207188515291837</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.467508333333333</v>
+      </c>
+      <c r="N12">
+        <v>4.402525</v>
+      </c>
+      <c r="O12">
+        <v>0.6402527256941667</v>
+      </c>
+      <c r="P12">
+        <v>0.6402527256941667</v>
+      </c>
+      <c r="Q12">
+        <v>3.172828837930555</v>
+      </c>
+      <c r="R12">
+        <v>28.555459541375</v>
+      </c>
+      <c r="S12">
+        <v>0.02053411188730626</v>
+      </c>
+      <c r="T12">
+        <v>0.02053411188730626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.162051666666667</v>
+      </c>
+      <c r="H13">
+        <v>6.486155</v>
+      </c>
+      <c r="I13">
+        <v>0.03207188515291837</v>
+      </c>
+      <c r="J13">
+        <v>0.03207188515291837</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.007129666666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.021389</v>
+      </c>
+      <c r="O13">
+        <v>0.003110570763339795</v>
+      </c>
+      <c r="P13">
+        <v>0.003110570763339795</v>
+      </c>
+      <c r="Q13">
+        <v>0.01541470769944444</v>
+      </c>
+      <c r="R13">
+        <v>0.138732369295</v>
+      </c>
+      <c r="S13">
+        <v>9.976186828185952E-05</v>
+      </c>
+      <c r="T13">
+        <v>9.976186828185952E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>13.28262333333333</v>
+      </c>
+      <c r="H14">
+        <v>39.84787</v>
+      </c>
+      <c r="I14">
+        <v>0.1970345004441647</v>
+      </c>
+      <c r="J14">
+        <v>0.1970345004441647</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.045969</v>
+      </c>
+      <c r="N14">
+        <v>0.137907</v>
+      </c>
+      <c r="O14">
+        <v>0.02005561186871295</v>
+      </c>
+      <c r="P14">
+        <v>0.02005561186871294</v>
+      </c>
+      <c r="Q14">
+        <v>0.6105889120100001</v>
+      </c>
+      <c r="R14">
+        <v>5.49530020809</v>
+      </c>
+      <c r="S14">
+        <v>0.003951647465653916</v>
+      </c>
+      <c r="T14">
+        <v>0.003951647465653916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>13.28262333333333</v>
+      </c>
+      <c r="H15">
+        <v>39.84787</v>
+      </c>
+      <c r="I15">
+        <v>0.1970345004441647</v>
+      </c>
+      <c r="J15">
+        <v>0.1970345004441647</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.7714696666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.314409</v>
+      </c>
+      <c r="O15">
+        <v>0.3365810916737805</v>
+      </c>
+      <c r="P15">
+        <v>0.3365810916737805</v>
+      </c>
+      <c r="Q15">
+        <v>10.24714099542556</v>
+      </c>
+      <c r="R15">
+        <v>92.22426895883</v>
+      </c>
+      <c r="S15">
+        <v>0.06631808725689496</v>
+      </c>
+      <c r="T15">
+        <v>0.06631808725689496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>13.28262333333333</v>
+      </c>
+      <c r="H16">
+        <v>39.84787</v>
+      </c>
+      <c r="I16">
+        <v>0.1970345004441647</v>
+      </c>
+      <c r="J16">
+        <v>0.1970345004441647</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.467508333333333</v>
+      </c>
+      <c r="N16">
+        <v>4.402525</v>
+      </c>
+      <c r="O16">
+        <v>0.6402527256941667</v>
+      </c>
+      <c r="P16">
+        <v>0.6402527256941667</v>
+      </c>
+      <c r="Q16">
+        <v>19.49236043019444</v>
+      </c>
+      <c r="R16">
+        <v>175.43124387175</v>
+      </c>
+      <c r="S16">
+        <v>0.126151875965165</v>
+      </c>
+      <c r="T16">
+        <v>0.126151875965165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>13.28262333333333</v>
+      </c>
+      <c r="H17">
+        <v>39.84787</v>
+      </c>
+      <c r="I17">
+        <v>0.1970345004441647</v>
+      </c>
+      <c r="J17">
+        <v>0.1970345004441647</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.007129666666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.021389</v>
+      </c>
+      <c r="O17">
+        <v>0.003110570763339795</v>
+      </c>
+      <c r="P17">
+        <v>0.003110570763339795</v>
+      </c>
+      <c r="Q17">
+        <v>0.09470067682555555</v>
+      </c>
+      <c r="R17">
+        <v>0.8523060914299999</v>
+      </c>
+      <c r="S17">
+        <v>0.0006128897564508807</v>
+      </c>
+      <c r="T17">
+        <v>0.0006128897564508807</v>
       </c>
     </row>
   </sheetData>
